--- a/template.xlsx
+++ b/template.xlsx
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="162">
   <si>
     <t xml:space="preserve">Organization: ADD NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">AUTOMATIC DATA PULL -</t>
+    <t xml:space="preserve">AUTOMATIC DATA PULL/STAT BY ALEX - please specify date of data pull</t>
   </si>
   <si>
     <t xml:space="preserve">QUALITATIVE ASSESSMENT BY BAS</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">Sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector reported at activity or transaction level? Or both (if this is inconsistent)?</t>
+    <t xml:space="preserve">Sector reported at activity level? </t>
   </si>
   <si>
     <t xml:space="preserve">Qualitative assessment: how percentages are allocated (TBC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Which vocabularies used?</t>
+    <t xml:space="preserve">Which vocabularies used at activity level?</t>
   </si>
   <si>
     <t xml:space="preserve">Number of activities including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
@@ -426,6 +426,27 @@
   </si>
   <si>
     <t xml:space="preserve">Number of activities including at least one sector code from both vocabulary 1 and vocabulary 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector reproted at transaction level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which vocabularies used at transaction levell?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of transactions including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of  transactions  including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of  transactions  including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of  transactions  including at least one sector code from vocabulary 2 (OECD-DAC 3 digit code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of  transactions including at least one sector code from both vocabulary 1 and vocabulary 2</t>
   </si>
   <si>
     <t xml:space="preserve">SDGs and Policy Markers?</t>
@@ -559,7 +580,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -595,6 +616,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -677,7 +705,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,6 +716,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFC8C8C8"/>
       </patternFill>
     </fill>
     <fill>
@@ -755,7 +789,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -768,163 +802,167 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,7 +1024,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF6AA84F"/>
       <rgbColor rgb="FF003300"/>
@@ -1005,18 +1043,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="48.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,1240 +1067,1290 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="18"/>
+      <c r="I13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="17"/>
+      <c r="I14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="17"/>
+      <c r="I15" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="D30" s="8" t="s">
+      <c r="B30" s="18"/>
+      <c r="I30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="17"/>
+      <c r="I31" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="D46" s="8" t="s">
+      <c r="B46" s="18"/>
+      <c r="I46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="D47" s="18" t="s">
+      <c r="B47" s="17"/>
+      <c r="I47" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="D48" s="18" t="s">
+      <c r="B48" s="17"/>
+      <c r="I48" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="D49" s="18" t="s">
+      <c r="B49" s="17"/>
+      <c r="I49" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="D50" s="18" t="s">
+      <c r="B50" s="24"/>
+      <c r="I50" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="D51" s="12" t="s">
+      <c r="B51" s="17"/>
+      <c r="I51" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="J51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="D52" s="18" t="s">
+      <c r="B52" s="17"/>
+      <c r="I52" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="D53" s="12" t="s">
+      <c r="B53" s="17"/>
+      <c r="I53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="22"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="22"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="25"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="22"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="22"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="22"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="21"/>
+      <c r="B72" s="22"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="21"/>
+      <c r="B73" s="22"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="24"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="22"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="21"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="21"/>
+      <c r="B78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="22"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="22"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="22"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="22"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="22"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="22"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="21"/>
+      <c r="B89" s="22"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="24"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="22"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="22"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="22"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="21"/>
+      <c r="B94" s="22"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B95" s="21"/>
+      <c r="B95" s="22"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="22"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="21"/>
+      <c r="B97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="23"/>
+      <c r="B98" s="24"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="22"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="D100" s="8" t="s">
+      <c r="B100" s="18"/>
+      <c r="I100" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E100" s="15"/>
+      <c r="J100" s="16"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="D101" s="22" t="s">
+      <c r="B101" s="22"/>
+      <c r="I101" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="D102" s="10" t="s">
+      <c r="B102" s="22"/>
+      <c r="I102" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="D103" s="10" t="s">
+      <c r="B103" s="24"/>
+      <c r="I103" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="21"/>
-      <c r="D104" s="10" t="s">
+      <c r="B104" s="22"/>
+      <c r="I104" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="D105" s="10" t="s">
+      <c r="B105" s="22"/>
+      <c r="I105" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E105" s="21"/>
+      <c r="J105" s="22"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="22"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="D107" s="8" t="s">
+      <c r="B107" s="27"/>
+      <c r="I107" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E107" s="27"/>
+      <c r="J107" s="28"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="D108" s="12" t="s">
+      <c r="B108" s="22"/>
+      <c r="I108" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="D109" s="12" t="s">
+      <c r="B109" s="22"/>
+      <c r="I109" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="D110" s="12" t="s">
+      <c r="B110" s="22"/>
+      <c r="I110" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="21"/>
+      <c r="B111" s="22"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="21"/>
+      <c r="B112" s="22"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="21"/>
+      <c r="B113" s="22"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="21"/>
+      <c r="B114" s="22"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="22"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="D116" s="8" t="s">
+      <c r="B116" s="18"/>
+      <c r="I116" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E116" s="15"/>
+      <c r="J116" s="16"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="21"/>
-      <c r="D117" s="12" t="s">
+      <c r="B117" s="22"/>
+      <c r="I117" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B118" s="21"/>
+      <c r="B118" s="22"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="22"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="22"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="21"/>
+      <c r="B121" s="22"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="22"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="21"/>
+      <c r="B123" s="22"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="21"/>
+      <c r="B124" s="22"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="21"/>
+      <c r="B125" s="22"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12"/>
-      <c r="B126" s="21"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="22"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="17"/>
-      <c r="D127" s="29" t="s">
+      <c r="B127" s="18"/>
+      <c r="I127" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="D128" s="18" t="s">
+      <c r="B128" s="22"/>
+      <c r="I128" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="21"/>
+      <c r="B129" s="22"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="21"/>
+      <c r="B130" s="22"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="21"/>
+      <c r="B131" s="22"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="21"/>
+      <c r="B132" s="22"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12"/>
-      <c r="B133" s="21"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="22"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B134" s="17"/>
-      <c r="D134" s="29" t="s">
+      <c r="B134" s="18"/>
+      <c r="I134" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E134" s="15"/>
+      <c r="J134" s="16"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="D135" s="12" t="s">
+      <c r="B135" s="22"/>
+      <c r="I135" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E135" s="21"/>
+      <c r="J135" s="22"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="31"/>
+      <c r="B136" s="32"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B137" s="31"/>
+      <c r="B137" s="32"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B138" s="32"/>
+      <c r="B138" s="33"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B139" s="31"/>
+      <c r="B139" s="32"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B140" s="31"/>
+      <c r="B140" s="32"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B141" s="31"/>
+      <c r="B141" s="32"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B142" s="21"/>
+      <c r="A142" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B142" s="22"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12"/>
-      <c r="B143" s="21"/>
+      <c r="A143" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143" s="22"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B144" s="17"/>
-      <c r="D144" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E144" s="15"/>
+      <c r="A144" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="22"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B145" s="21"/>
-      <c r="D145" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="A145" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="22"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B146" s="31"/>
+      <c r="A146" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B146" s="22"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B147" s="31"/>
+      <c r="A147" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B147" s="22"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B148" s="21"/>
+      <c r="A148" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" s="22"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B149" s="21"/>
+      <c r="A149" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="18"/>
+      <c r="I149" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J149" s="16"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B150" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="B150" s="22"/>
+      <c r="I150" s="19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="18"/>
-      <c r="B151" s="21"/>
+      <c r="A151" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="32"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B152" s="17"/>
-      <c r="D152" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E152" s="15"/>
+      <c r="A152" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="32"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" s="22"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154" s="22"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155" s="22"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="19"/>
+      <c r="B156" s="22"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="18"/>
+      <c r="I157" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J157" s="16"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" s="22"/>
+      <c r="I158" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="D153" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B154" s="21"/>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B155" s="21"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B156" s="21"/>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B157" s="21"/>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="41"/>
-      <c r="B158" s="21"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B159" s="17"/>
-      <c r="D159" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E159" s="15"/>
+      <c r="A159" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="22"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B160" s="31"/>
-      <c r="D160" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="A160" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="22"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B161" s="31"/>
+      <c r="A161" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="22"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B162" s="32"/>
+      <c r="A162" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B162" s="22"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B163" s="31"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="22"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="31"/>
+      <c r="A164" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B164" s="18"/>
+      <c r="I164" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B165" s="31"/>
+      <c r="A165" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="32"/>
+      <c r="I165" s="19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B166" s="31"/>
+        <v>137</v>
+      </c>
+      <c r="B166" s="32"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="31"/>
+        <v>138</v>
+      </c>
+      <c r="B167" s="33"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B168" s="31"/>
+        <v>139</v>
+      </c>
+      <c r="B168" s="32"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B169" s="32"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B170" s="31"/>
+        <v>141</v>
+      </c>
+      <c r="B170" s="32"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B171" s="31"/>
+      <c r="A171" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B171" s="32"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B172" s="31"/>
+      <c r="A172" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" s="32"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B173" s="31"/>
+      <c r="A173" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" s="32"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12"/>
-      <c r="B174" s="21"/>
+      <c r="A174" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B174" s="33"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B175" s="17"/>
-      <c r="D175" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E175" s="15"/>
+      <c r="A175" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="32"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B176" s="31"/>
-      <c r="D176" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="A176" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="32"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B177" s="31"/>
+      <c r="A177" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B177" s="32"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="20" t="s">
-        <v>146</v>
+      <c r="A178" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="B178" s="32"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B179" s="31"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="22"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B180" s="31"/>
+      <c r="A180" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B180" s="18"/>
+      <c r="I180" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J180" s="16"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B181" s="31"/>
+      <c r="A181" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B181" s="32"/>
+      <c r="I181" s="19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B182" s="31"/>
+      <c r="A182" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" s="32"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="22"/>
-      <c r="B183" s="21"/>
+      <c r="A183" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="33"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D184" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E184" s="9"/>
+      <c r="A184" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B184" s="32"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="36"/>
-      <c r="B185" s="21"/>
-      <c r="D185" s="30" t="s">
-        <v>152</v>
-      </c>
+      <c r="A185" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B185" s="32"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="35"/>
-      <c r="B186" s="31"/>
-      <c r="D186" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="A186" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B186" s="32"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="42"/>
-      <c r="B187" s="31"/>
-      <c r="D187" s="30" t="s">
-        <v>154</v>
+      <c r="A187" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B187" s="32"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="23"/>
+      <c r="B188" s="22"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I189" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="J189" s="10"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="37"/>
+      <c r="B190" s="22"/>
+      <c r="I190" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="36"/>
+      <c r="B191" s="32"/>
+      <c r="I191" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="43"/>
+      <c r="B192" s="32"/>
+      <c r="I192" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
   <si>
     <t xml:space="preserve">Organization: ADD NAME</t>
   </si>
@@ -401,6 +401,9 @@
     <t xml:space="preserve">Number of activities that include geo-coordinates (iati-activity/location/point and iati-activity/location/point/pos)</t>
   </si>
   <si>
+    <t xml:space="preserve">^</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sector</t>
   </si>
   <si>
@@ -576,9 +579,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -789,7 +791,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -886,18 +888,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -922,7 +932,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,6 +940,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -960,6 +974,10 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1045,11 +1063,11 @@
   </sheetPr>
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
@@ -1296,11 +1314,11 @@
       </c>
       <c r="B32" s="17"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
@@ -1327,7 +1345,7 @@
       <c r="B37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="17"/>
@@ -1338,11 +1356,11 @@
       </c>
       <c r="B39" s="17"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
@@ -1400,7 +1418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
         <v>49</v>
       </c>
@@ -1409,16 +1427,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="25"/>
       <c r="I50" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
         <v>53</v>
       </c>
@@ -1428,7 +1446,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
         <v>47</v>
       </c>
@@ -1437,7 +1455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
         <v>49</v>
       </c>
@@ -1446,275 +1464,275 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="24"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="25"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="17"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="22"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="24"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="25"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="22"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="22"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="24"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="25"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="22"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B64" s="26"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="26"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="26"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="27"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B67" s="22"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B68" s="22"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="22"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="22"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="28"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B71" s="22"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B72" s="22"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="22"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="24"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="25"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B75" s="22"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B76" s="22"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="22"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="22"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="28"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="22"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B80" s="22"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B81" s="22"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="22"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="28"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="22"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="22"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B85" s="22"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="22"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="28"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B87" s="22"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B88" s="22"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="25"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B91" s="22"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B92" s="22"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="22"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="28"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="22"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B96" s="22"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="22"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="28"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="24"/>
+      <c r="B98" s="25"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13"/>
@@ -1748,11 +1766,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="I103" s="11" t="s">
         <v>74</v>
       </c>
@@ -1761,7 +1779,7 @@
       <c r="A104" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="22"/>
+      <c r="B104" s="28"/>
       <c r="I104" s="11" t="s">
         <v>76</v>
       </c>
@@ -1770,7 +1788,7 @@
       <c r="A105" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="22"/>
+      <c r="B105" s="28"/>
       <c r="I105" s="11" t="s">
         <v>78</v>
       </c>
@@ -1784,17 +1802,17 @@
       <c r="A107" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="29"/>
       <c r="I107" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J107" s="28"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B108" s="22"/>
+      <c r="B108" s="28"/>
       <c r="I108" s="13" t="s">
         <v>81</v>
       </c>
@@ -1803,7 +1821,7 @@
       <c r="A109" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="22"/>
+      <c r="B109" s="28"/>
       <c r="I109" s="13" t="s">
         <v>83</v>
       </c>
@@ -1812,7 +1830,7 @@
       <c r="A110" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="22"/>
+      <c r="B110" s="28"/>
       <c r="I110" s="13" t="s">
         <v>85</v>
       </c>
@@ -1821,25 +1839,25 @@
       <c r="A111" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="22"/>
+      <c r="B111" s="28"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="22"/>
+      <c r="B112" s="28"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="28"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="22"/>
+      <c r="B114" s="28"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13"/>
@@ -1859,7 +1877,7 @@
       <c r="A117" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="22"/>
+      <c r="B117" s="28"/>
       <c r="I117" s="13" t="s">
         <v>89</v>
       </c>
@@ -1868,60 +1886,60 @@
       <c r="A118" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B118" s="22"/>
+      <c r="B118" s="28"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B119" s="22"/>
+      <c r="B119" s="28"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="22"/>
+      <c r="B120" s="28"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="22"/>
+      <c r="B121" s="28"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B122" s="22"/>
+      <c r="B122" s="28"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="22"/>
+      <c r="B123" s="28"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="28"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="22"/>
+      <c r="B125" s="28"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13"/>
       <c r="B126" s="22"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="31" t="s">
         <v>98</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="I127" s="30" t="s">
+      <c r="I127" s="32" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1929,7 +1947,7 @@
       <c r="A128" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="22"/>
+      <c r="B128" s="28"/>
       <c r="I128" s="19" t="s">
         <v>100</v>
       </c>
@@ -1938,25 +1956,27 @@
       <c r="A129" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="22"/>
+      <c r="B129" s="28"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="22"/>
+      <c r="B130" s="28"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="22"/>
+      <c r="B131" s="28"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="22"/>
+      <c r="B132" s="28" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13"/>
@@ -1964,298 +1984,298 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="I134" s="30" t="s">
-        <v>105</v>
+      <c r="I134" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="J134" s="16"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="22"/>
+      <c r="A135" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="28"/>
       <c r="I135" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J135" s="22"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B136" s="32"/>
+      <c r="A136" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="34"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B137" s="32"/>
+        <v>110</v>
+      </c>
+      <c r="B137" s="34"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B138" s="33"/>
+        <v>111</v>
+      </c>
+      <c r="B138" s="35"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B139" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="B139" s="34"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B140" s="32"/>
+        <v>113</v>
+      </c>
+      <c r="B140" s="34"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B141" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="B141" s="34"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B142" s="22"/>
+        <v>115</v>
+      </c>
+      <c r="B142" s="28"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B143" s="22"/>
+      <c r="A143" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" s="28"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B144" s="22"/>
+      <c r="A144" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="28"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B145" s="22"/>
+      <c r="A145" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B145" s="28"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B146" s="22"/>
+      <c r="A146" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="28"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B147" s="22"/>
+      <c r="A147" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="28"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B148" s="22"/>
+      <c r="A148" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B148" s="28"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B149" s="18"/>
-      <c r="I149" s="35" t="s">
-        <v>121</v>
+      <c r="A149" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="37"/>
+      <c r="I149" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="J149" s="16"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B150" s="22"/>
+      <c r="A150" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" s="28"/>
       <c r="I150" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B151" s="32"/>
+      <c r="A151" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="34"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B152" s="32"/>
+      <c r="A152" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B152" s="34"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B153" s="22"/>
+      <c r="A153" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" s="28"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B154" s="22"/>
+      <c r="A154" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="28"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B155" s="22"/>
+      <c r="A155" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="28"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="19"/>
       <c r="B156" s="22"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="38" t="s">
-        <v>129</v>
+      <c r="A157" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="I157" s="39" t="s">
-        <v>129</v>
+      <c r="I157" s="42" t="s">
+        <v>130</v>
       </c>
       <c r="J157" s="16"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B158" s="22"/>
+      <c r="A158" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="28"/>
       <c r="I158" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" s="22"/>
+      <c r="A159" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" s="28"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B160" s="22"/>
+      <c r="A160" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" s="28"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="22"/>
+      <c r="A161" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161" s="28"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B162" s="22"/>
+      <c r="A162" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" s="28"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="42"/>
+      <c r="A163" s="45"/>
       <c r="B163" s="22"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="34" t="s">
-        <v>135</v>
+      <c r="A164" s="36" t="s">
+        <v>136</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="I164" s="35" t="s">
-        <v>135</v>
+      <c r="I164" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="J164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="32"/>
+      <c r="A165" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="34"/>
       <c r="I165" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B166" s="32"/>
+      <c r="A166" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" s="34"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B167" s="33"/>
+      <c r="A167" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B167" s="35"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B168" s="32"/>
+      <c r="A168" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" s="34"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B169" s="32"/>
+      <c r="A169" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" s="34"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B170" s="32"/>
+      <c r="A170" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" s="34"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B171" s="32"/>
+      <c r="A171" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B171" s="34"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B172" s="32"/>
+      <c r="A172" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="34"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B173" s="32"/>
+      <c r="A173" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="34"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B174" s="33"/>
+      <c r="A174" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B174" s="35"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B175" s="32"/>
+      <c r="A175" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="34"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B176" s="32"/>
+      <c r="A176" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" s="34"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B177" s="32"/>
+      <c r="A177" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" s="34"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B178" s="32"/>
+      <c r="A178" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B178" s="34"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13"/>
@@ -2263,88 +2283,88 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B180" s="18"/>
-      <c r="I180" s="30" t="s">
-        <v>150</v>
+      <c r="I180" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="J180" s="16"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B181" s="32"/>
+        <v>152</v>
+      </c>
+      <c r="B181" s="34"/>
       <c r="I181" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B182" s="32"/>
+        <v>153</v>
+      </c>
+      <c r="B182" s="34"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B183" s="33"/>
+        <v>154</v>
+      </c>
+      <c r="B183" s="35"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B184" s="32"/>
+        <v>155</v>
+      </c>
+      <c r="B184" s="34"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B185" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B185" s="34"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B186" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="B186" s="34"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B187" s="32"/>
+      <c r="A187" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" s="34"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="23"/>
       <c r="B188" s="22"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="35" t="s">
-        <v>158</v>
+      <c r="I189" s="38" t="s">
+        <v>159</v>
       </c>
       <c r="J189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="37"/>
+      <c r="A190" s="40"/>
       <c r="B190" s="22"/>
-      <c r="I190" s="31" t="s">
-        <v>159</v>
+      <c r="I190" s="33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="36"/>
-      <c r="B191" s="32"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="46"/>
       <c r="I191" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="43"/>
-      <c r="B192" s="32"/>
-      <c r="I192" s="31" t="s">
-        <v>161</v>
+      <c r="A192" s="47"/>
+      <c r="B192" s="46"/>
+      <c r="I192" s="33" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t xml:space="preserve">Organization: ADD NAME</t>
   </si>
@@ -298,7 +298,13 @@
     <t xml:space="preserve">Qualitative assessment: what date appears to be used for the value date?</t>
   </si>
   <si>
-    <t xml:space="preserve">Do they report original or revised or original and revised? </t>
+    <t xml:space="preserve">Number of activities with only original budgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of activities with only revised budgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of activities with original and revised budgets</t>
   </si>
   <si>
     <r>
@@ -791,7 +797,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -892,20 +898,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -940,10 +938,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -974,10 +968,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1061,13 +1051,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
@@ -1360,7 +1350,7 @@
       <c r="A40" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
@@ -1431,7 +1421,7 @@
       <c r="A50" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="17"/>
       <c r="I50" s="19" t="s">
         <v>52</v>
       </c>
@@ -1468,7 +1458,7 @@
       <c r="A54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
@@ -1492,7 +1482,7 @@
       <c r="A58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
@@ -1516,7 +1506,7 @@
       <c r="A62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
@@ -1528,19 +1518,19 @@
       <c r="A64" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="25"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20" t="s">
@@ -1564,7 +1554,7 @@
       <c r="A70" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="28"/>
+      <c r="B70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="20" t="s">
@@ -1588,7 +1578,7 @@
       <c r="A74" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="25"/>
+      <c r="B74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20" t="s">
@@ -1612,7 +1602,7 @@
       <c r="A78" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="28"/>
+      <c r="B78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
@@ -1636,7 +1626,7 @@
       <c r="A82" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="28"/>
+      <c r="B82" s="22"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20" t="s">
@@ -1660,7 +1650,7 @@
       <c r="A86" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="28"/>
+      <c r="B86" s="22"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
@@ -1684,7 +1674,7 @@
       <c r="A90" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="25"/>
+      <c r="B90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20" t="s">
@@ -1708,7 +1698,7 @@
       <c r="A94" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="28"/>
+      <c r="B94" s="22"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20" t="s">
@@ -1726,13 +1716,13 @@
       <c r="A97" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="28"/>
+      <c r="B97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="25"/>
+      <c r="B98" s="17"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13"/>
@@ -1770,7 +1760,7 @@
       <c r="A103" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="25"/>
+      <c r="B103" s="17"/>
       <c r="I103" s="11" t="s">
         <v>74</v>
       </c>
@@ -1779,592 +1769,606 @@
       <c r="A104" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="28"/>
+      <c r="B104" s="22"/>
       <c r="I104" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19" t="s">
+    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="I105" s="11" t="s">
+      <c r="B105" s="22"/>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J105" s="22"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13"/>
       <c r="B106" s="22"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="I107" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J107" s="30"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="s">
+      <c r="B107" s="22"/>
+      <c r="I107" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B108" s="28"/>
-      <c r="I108" s="13" t="s">
+      <c r="J107" s="22"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13"/>
+      <c r="B108" s="22"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="s">
+      <c r="B109" s="27"/>
+      <c r="I109" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J109" s="28"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="I109" s="13" t="s">
+      <c r="B110" s="22"/>
+      <c r="I110" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="I110" s="13" t="s">
+      <c r="B111" s="22"/>
+      <c r="I111" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13" t="s">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="28"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B112" s="28"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="22"/>
+      <c r="I112" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="22"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="28"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="s">
+      <c r="B114" s="22"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="28"/>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13"/>
       <c r="B115" s="22"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B116" s="18"/>
-      <c r="I116" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J116" s="16"/>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="28"/>
-      <c r="I117" s="13" t="s">
+      <c r="B116" s="22"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="13"/>
+      <c r="B117" s="22"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11" t="s">
+      <c r="B118" s="18"/>
+      <c r="I118" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J118" s="16"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B118" s="28"/>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="s">
+      <c r="B119" s="22"/>
+      <c r="I119" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B119" s="28"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="28"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="22"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="28"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="19" t="s">
+      <c r="B121" s="22"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B122" s="28"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="22"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="28"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="s">
+      <c r="B123" s="22"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="28"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="22"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B125" s="28"/>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13"/>
+      <c r="B125" s="22"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="B126" s="22"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="18"/>
-      <c r="I127" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="21" t="s">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="I128" s="19" t="s">
+      <c r="B127" s="22"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="13"/>
+      <c r="B128" s="22"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="21" t="s">
+      <c r="B129" s="18"/>
+      <c r="I129" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="28"/>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="33" t="s">
+      <c r="B130" s="22"/>
+      <c r="I130" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="28"/>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B131" s="28"/>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="33" t="s">
+      <c r="B131" s="22"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="22"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13"/>
       <c r="B133" s="22"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="18"/>
-      <c r="I134" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J134" s="16"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="33" t="s">
+      <c r="B134" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="I135" s="13" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="13"/>
+      <c r="B135" s="22"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J135" s="22"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="33" t="s">
+      <c r="B136" s="18"/>
+      <c r="I136" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J136" s="16"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B136" s="34"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13" t="s">
+      <c r="B137" s="22"/>
+      <c r="I137" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B137" s="34"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13" t="s">
+      <c r="J137" s="22"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B138" s="35"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="32"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="34"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="32"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B140" s="34"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="33"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="34"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="19" t="s">
+      <c r="B141" s="32"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B142" s="28"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="33" t="s">
+      <c r="B142" s="32"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B143" s="28"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="33" t="s">
+      <c r="B143" s="32"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B144" s="28"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="33" t="s">
+      <c r="B144" s="22"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B145" s="28"/>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="33" t="s">
+      <c r="B145" s="22"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B146" s="28"/>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="33" t="s">
+      <c r="B146" s="22"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B147" s="28"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="33" t="s">
+      <c r="B147" s="22"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="28"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="36" t="s">
+      <c r="B148" s="22"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="I149" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J149" s="16"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="39" t="s">
+      <c r="B149" s="22"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="28"/>
-      <c r="I150" s="19" t="s">
+      <c r="B150" s="22"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="39" t="s">
+      <c r="B151" s="18"/>
+      <c r="I151" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J151" s="16"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B151" s="34"/>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="39" t="s">
+      <c r="B152" s="22"/>
+      <c r="I152" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B152" s="34"/>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="39" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B153" s="28"/>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="40" t="s">
+      <c r="B153" s="32"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="28"/>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="40" t="s">
+      <c r="B154" s="32"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B155" s="28"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="19"/>
+      <c r="B155" s="22"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="B156" s="22"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B157" s="18"/>
-      <c r="I157" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="J157" s="16"/>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="43" t="s">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="28"/>
-      <c r="I158" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="44" t="s">
+      <c r="B157" s="22"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="19"/>
+      <c r="B158" s="22"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="28"/>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="43" t="s">
+      <c r="B159" s="18"/>
+      <c r="I159" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J159" s="16"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B160" s="28"/>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="43" t="s">
+      <c r="B160" s="22"/>
+      <c r="I160" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="28"/>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="43" t="s">
+      <c r="B161" s="22"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B162" s="28"/>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="45"/>
+      <c r="B162" s="22"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="40" t="s">
+        <v>136</v>
+      </c>
       <c r="B163" s="22"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="18"/>
-      <c r="I164" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="J164" s="16"/>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="39" t="s">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="34"/>
-      <c r="I165" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="39" t="s">
+      <c r="B164" s="22"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="42"/>
+      <c r="B165" s="22"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B166" s="34"/>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="39" t="s">
+      <c r="B166" s="18"/>
+      <c r="I166" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J166" s="16"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B167" s="35"/>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="39" t="s">
+      <c r="B167" s="32"/>
+      <c r="I167" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B168" s="34"/>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="39" t="s">
+      <c r="B168" s="32"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B169" s="34"/>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="39" t="s">
+      <c r="B169" s="33"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B170" s="34"/>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="40" t="s">
+      <c r="B170" s="32"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B171" s="34"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="40" t="s">
+      <c r="B171" s="32"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B172" s="34"/>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="40" t="s">
+      <c r="B172" s="32"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B173" s="34"/>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="40" t="s">
+      <c r="B173" s="32"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B174" s="35"/>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="40" t="s">
+      <c r="B174" s="32"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B175" s="34"/>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="40" t="s">
+      <c r="B175" s="32"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B176" s="34"/>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="40" t="s">
+      <c r="B176" s="33"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B177" s="34"/>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="40" t="s">
+      <c r="B177" s="32"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B178" s="34"/>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="13"/>
-      <c r="B179" s="22"/>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
+      <c r="B178" s="32"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B180" s="18"/>
-      <c r="I180" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="J180" s="16"/>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="21" t="s">
+      <c r="B179" s="32"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="I181" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="21" t="s">
+      <c r="B180" s="32"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="13"/>
+      <c r="B181" s="22"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B182" s="34"/>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="18"/>
+      <c r="I182" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="J182" s="16"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B183" s="35"/>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="32"/>
+      <c r="I183" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B184" s="34"/>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="32"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B185" s="34"/>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="33"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B186" s="34"/>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="33" t="s">
+      <c r="B186" s="32"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B187" s="34"/>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="23"/>
-      <c r="B188" s="22"/>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="38" t="s">
+      <c r="B187" s="32"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J189" s="10"/>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="40"/>
+      <c r="B188" s="32"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B189" s="32"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="23"/>
       <c r="B190" s="22"/>
-      <c r="I190" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="39"/>
-      <c r="B191" s="46"/>
-      <c r="I191" s="21" t="s">
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I191" s="35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="47"/>
-      <c r="B192" s="46"/>
-      <c r="I192" s="33" t="s">
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="37"/>
+      <c r="B192" s="22"/>
+      <c r="I192" s="31" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="36"/>
+      <c r="B193" s="32"/>
+      <c r="I193" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="43"/>
+      <c r="B194" s="32"/>
+      <c r="I194" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -413,7 +413,7 @@
     <t xml:space="preserve">Sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector reported at activity level? </t>
+    <t xml:space="preserve">Number of activities with activity-level sector(s)</t>
   </si>
   <si>
     <t xml:space="preserve">Qualitative assessment: how percentages are allocated (TBC)</t>
@@ -1053,11 +1053,11 @@
   </sheetPr>
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
@@ -1996,8 +1996,8 @@
       </c>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="31" t="s">
+    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="26" t="s">
         <v>109</v>
       </c>
       <c r="B137" s="22"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -437,10 +437,10 @@
     <t xml:space="preserve">Number of activities including at least one sector code from both vocabulary 1 and vocabulary 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sector reproted at transaction level?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which vocabularies used at transaction levell?</t>
+    <t xml:space="preserve">Number of transactions with transaction-level sector(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which vocabularies used at transaction level?</t>
   </si>
   <si>
     <t xml:space="preserve">Number of transactions including at least one sector code from vocabulary 1 (OECD-DAC 5 digit code)</t>
@@ -1053,11 +1053,11 @@
   </sheetPr>
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
   <si>
     <t xml:space="preserve">Organization: ADD NAME</t>
   </si>
@@ -407,9 +407,6 @@
     <t xml:space="preserve">Number of activities that include geo-coordinates (iati-activity/location/point and iati-activity/location/point/pos)</t>
   </si>
   <si>
-    <t xml:space="preserve">^</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sector</t>
   </si>
   <si>
@@ -497,7 +494,13 @@
     <t xml:space="preserve">How many transactions include the humanitarian flag?</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the humanitarian scope element being used? If so, check which @type and @vocabulary?</t>
+    <t xml:space="preserve">Number of activities with humanitarian scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which humanitarian scope types are being used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which humanitarian scope vocabularies are being used?</t>
   </si>
   <si>
     <t xml:space="preserve">Finance &amp; Flow Type</t>
@@ -1051,13 +1054,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
@@ -1978,9 +1981,7 @@
       <c r="A134" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="22" t="s">
-        <v>107</v>
-      </c>
+      <c r="B134" s="22"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13"/>
@@ -1988,387 +1989,403 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B136" s="18"/>
       <c r="I136" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J136" s="16"/>
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B137" s="22"/>
       <c r="I137" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J137" s="22"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B138" s="32"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139" s="32"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B140" s="33"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" s="32"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B142" s="32"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B143" s="32"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B144" s="22"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B145" s="22"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B146" s="22"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" s="22"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" s="22"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B149" s="22"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B150" s="22"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="31"/>
+      <c r="B151" s="22"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="22"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B151" s="18"/>
-      <c r="I151" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="J151" s="16"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B152" s="22"/>
-      <c r="I152" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="B152" s="18"/>
+      <c r="I152" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J152" s="16"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B153" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="B153" s="22"/>
+      <c r="I153" s="19" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B154" s="32"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B155" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="B155" s="32"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="37" t="s">
-        <v>130</v>
+      <c r="A156" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="B156" s="22"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="22"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" s="22"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="19"/>
+      <c r="B159" s="22"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B157" s="22"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="19"/>
-      <c r="B158" s="22"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="38" t="s">
+      <c r="B160" s="18"/>
+      <c r="I160" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J160" s="16"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="18"/>
-      <c r="I159" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J159" s="16"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="40" t="s">
+      <c r="B161" s="22"/>
+      <c r="I161" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="B160" s="22"/>
-      <c r="I160" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B161" s="22"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="40" t="s">
-        <v>135</v>
       </c>
       <c r="B162" s="22"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B163" s="22"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B164" s="22"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="22"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="22"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="42"/>
-      <c r="B165" s="22"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="34" t="s">
+      <c r="B166" s="22"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="I166" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="J166" s="16"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="36" t="s">
+      <c r="B167" s="22"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="42"/>
+      <c r="B168" s="22"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B167" s="32"/>
-      <c r="I167" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B168" s="32"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B169" s="33"/>
+      <c r="B169" s="18"/>
+      <c r="I169" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="J169" s="16"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B170" s="32"/>
+      <c r="I170" s="19" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B171" s="32"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B172" s="33"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B173" s="32"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B172" s="32"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="37" t="s">
+      <c r="B174" s="32"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="36" t="s">
         <v>145</v>
-      </c>
-      <c r="B173" s="32"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B174" s="32"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="37" t="s">
-        <v>147</v>
       </c>
       <c r="B175" s="32"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B176" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="B176" s="32"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B177" s="32"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B178" s="32"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="B179" s="33"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B180" s="32"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B181" s="32"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B180" s="32"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="13"/>
-      <c r="B181" s="22"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="s">
+      <c r="B182" s="32"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B182" s="18"/>
-      <c r="I182" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J182" s="16"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="21" t="s">
+      <c r="B183" s="32"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="13"/>
+      <c r="B184" s="22"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B183" s="32"/>
-      <c r="I183" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B184" s="32"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B185" s="33"/>
+      <c r="B185" s="18"/>
+      <c r="I185" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J185" s="16"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B186" s="32"/>
+      <c r="I186" s="19" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B187" s="32"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" s="33"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B189" s="32"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B188" s="32"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="31" t="s">
+      <c r="B190" s="32"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B189" s="32"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="23"/>
-      <c r="B190" s="22"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="35" t="s">
+      <c r="B191" s="32"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="J191" s="10"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="37"/>
-      <c r="B192" s="22"/>
-      <c r="I192" s="31" t="s">
+      <c r="B192" s="32"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="23"/>
+      <c r="B193" s="22"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I194" s="35" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="36"/>
-      <c r="B193" s="32"/>
-      <c r="I193" s="21" t="s">
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="37"/>
+      <c r="B195" s="22"/>
+      <c r="I195" s="31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="43"/>
-      <c r="B194" s="32"/>
-      <c r="I194" s="31" t="s">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="36"/>
+      <c r="B196" s="32"/>
+      <c r="I196" s="21" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="43"/>
+      <c r="B197" s="32"/>
+      <c r="I197" s="31" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="167">
   <si>
     <t xml:space="preserve">Organization: ADD NAME</t>
   </si>
@@ -569,7 +569,10 @@
     <t xml:space="preserve">Transaction level: Aid type included in which transaction types?</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify which aid type vocabularies have been used in addition to vocab 1? Have vocabs 2,3, 4 been used? (check activity and transaction level).</t>
+    <t xml:space="preserve">Which default aid type vocabularies are being used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which aid type vocabularies are being used?</t>
   </si>
   <si>
     <t xml:space="preserve">Organization File (manual)</t>
@@ -1056,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2351,19 +2354,21 @@
       </c>
       <c r="B191" s="32"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="31" t="s">
+    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="26" t="s">
         <v>161</v>
       </c>
       <c r="B192" s="32"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="23"/>
+    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="26" t="s">
+        <v>162</v>
+      </c>
       <c r="B193" s="22"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I194" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J194" s="10"/>
     </row>
@@ -2371,21 +2376,21 @@
       <c r="A195" s="37"/>
       <c r="B195" s="22"/>
       <c r="I195" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="36"/>
       <c r="B196" s="32"/>
       <c r="I196" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="43"/>
       <c r="B197" s="32"/>
       <c r="I197" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
   <si>
     <t xml:space="preserve">Organization: ADD NAME</t>
   </si>
@@ -100,12 +100,27 @@
     <t xml:space="preserve">Critical errors as assessed by the Validator? (use DS API to assess)</t>
   </si>
   <si>
+    <t xml:space="preserve">Danger errors as assessed by the validator?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activity file(s) structure (Check Registry)</t>
   </si>
   <si>
+    <t xml:space="preserve">Critical fail via datastore API</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of activity files</t>
   </si>
   <si>
+    <t xml:space="preserve">Non-accessible files via datastore API (https://iatidatastore.iatistandard.org/api/datasets/failedpickups/?format=json&amp;publisher_identifier=46002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity status being used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List default and other currencies (transaction &amp; budget) being used</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qualitative assessment: publish one file for all activities? Individual files per recipient country or recipient region? Etc.</t>
   </si>
   <si>
@@ -127,6 +142,9 @@
     <t xml:space="preserve">Number of participating orgs that include narrative</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of participating orgs with neither @ref or narrative (blank)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Funding </t>
   </si>
   <si>
@@ -190,6 +208,12 @@
     <t xml:space="preserve">Number of transactions that include provider-activity-id</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of blank provider orgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List which transaction types provider orgs have been added for</t>
+  </si>
+  <si>
     <t xml:space="preserve">Receiver orgs</t>
   </si>
   <si>
@@ -197,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage of transactions that include receiver orgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of blank receiver orgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List which transaction types receiver orgs have been added for</t>
   </si>
   <si>
     <t xml:space="preserve">Transactions - use of transaction types</t>
@@ -679,15 +709,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color rgb="FF6AA84F"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF6AA84F"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -888,7 +918,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,14 +930,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -924,11 +950,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -944,15 +974,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,7 +990,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,13 +1087,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
@@ -1110,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1150,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1138,1259 +1168,1298 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="I13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="I14" s="19" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="13"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="17"/>
       <c r="I15" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>20</v>
+      <c r="I16" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>21</v>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>22</v>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
-        <v>23</v>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>26</v>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="17"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" s="17"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="17"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>29</v>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="17"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27" s="17"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>31</v>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="17"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="I30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="I31" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>35</v>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="I31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="17"/>
+      <c r="I32" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
-        <v>36</v>
+      <c r="A33" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>37</v>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="17"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>38</v>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B35" s="17"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
-        <v>39</v>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="17"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>40</v>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="17"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
-        <v>41</v>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="17"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>42</v>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="B39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="I46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="B47" s="17"/>
-      <c r="I47" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" s="17"/>
-      <c r="I48" s="19" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49" s="17"/>
-      <c r="I49" s="19" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="I50" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="A50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="I50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" s="17"/>
-      <c r="I51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51" s="17"/>
+      <c r="I51" s="19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B52" s="17"/>
       <c r="I52" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B53" s="17"/>
-      <c r="I53" s="13" t="s">
-        <v>56</v>
+      <c r="I53" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B54" s="17"/>
+      <c r="I54" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55" s="17"/>
+      <c r="I55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B56" s="17"/>
+      <c r="I56" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="I57" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="B63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="B64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="B67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B68" s="24"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B69" s="24"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="B70" s="24"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="B74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="B79" s="23"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B80" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B81" s="23"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="B82" s="23"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="B83" s="23"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B84" s="23"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B85" s="23"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="B86" s="23"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="B87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B88" s="23"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B89" s="23"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="B90" s="23"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B91" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="B91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B92" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B92" s="23"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="B94" s="17"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="B95" s="23"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B96" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="B96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="B97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="17"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13"/>
-      <c r="B99" s="22"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="I100" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J100" s="16"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="B98" s="23"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="23"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="23"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="I101" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="B101" s="23"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B102" s="22"/>
-      <c r="I102" s="11" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" s="17"/>
-      <c r="I103" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="I104" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" s="22"/>
-      <c r="I105" s="11"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26" t="s">
+      <c r="A103" s="13"/>
+      <c r="B103" s="23"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B106" s="22"/>
-      <c r="I106" s="11"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26" t="s">
+      <c r="B104" s="18"/>
+      <c r="I104" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J104" s="16"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="I105" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="I106" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="17"/>
       <c r="I107" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J107" s="22"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13"/>
-      <c r="B108" s="22"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="27"/>
-      <c r="I109" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J109" s="28"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B110" s="22"/>
-      <c r="I110" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="22"/>
-      <c r="I111" s="13" t="s">
+      <c r="A108" s="13" t="s">
         <v>85</v>
       </c>
+      <c r="B108" s="23"/>
+      <c r="I108" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="I111" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J111" s="23"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B112" s="22"/>
-      <c r="I112" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="A112" s="13"/>
+      <c r="B112" s="23"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B113" s="22"/>
+      <c r="A113" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="26"/>
+      <c r="I113" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J113" s="27"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" s="22"/>
+        <v>92</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="I114" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B115" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="I115" s="13" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B116" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="I116" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="23"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="18"/>
-      <c r="I118" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J118" s="16"/>
+      <c r="A118" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" s="23"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="I119" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="A119" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="23"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="22"/>
+      <c r="A120" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="23"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B121" s="22"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="23"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B122" s="22"/>
+      <c r="A122" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="I122" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" s="22"/>
+      <c r="A123" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="I123" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" s="22"/>
+      <c r="A124" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="23"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B125" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="B125" s="23"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="B126" s="23"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B127" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="B127" s="23"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="23"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B129" s="18"/>
-      <c r="I129" s="30" t="s">
-        <v>100</v>
-      </c>
+      <c r="A129" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="23"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B130" s="22"/>
-      <c r="I130" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="A130" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="23"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="22"/>
+      <c r="A131" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="23"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B132" s="22"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="23"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B133" s="22"/>
+      <c r="A133" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="I133" s="29" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B134" s="22"/>
+      <c r="A134" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="23"/>
+      <c r="I134" s="19" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" s="23"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B136" s="18"/>
-      <c r="I136" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J136" s="16"/>
-    </row>
-    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B137" s="22"/>
-      <c r="I137" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J137" s="22"/>
+      <c r="A136" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" s="23"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" s="23"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B138" s="32"/>
+        <v>116</v>
+      </c>
+      <c r="B138" s="23"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B139" s="32"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="23"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B140" s="33"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B141" s="32"/>
+      <c r="A140" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B140" s="18"/>
+      <c r="I140" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J140" s="16"/>
+    </row>
+    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B141" s="23"/>
+      <c r="I141" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J141" s="23"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13" t="s">
-        <v>114</v>
+      <c r="A142" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="B142" s="32"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B143" s="32"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B144" s="22"/>
+      <c r="A144" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="33"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B145" s="22"/>
+      <c r="A145" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="32"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B146" s="22"/>
+      <c r="A146" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="32"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B147" s="22"/>
+      <c r="A147" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="32"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B148" s="22"/>
+      <c r="A148" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" s="23"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B149" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="B149" s="23"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B150" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="B150" s="23"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="31"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="23"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B152" s="18"/>
-      <c r="I152" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J152" s="16"/>
+      <c r="A152" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="23"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B153" s="22"/>
-      <c r="I153" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="A153" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="23"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B154" s="32"/>
+      <c r="A154" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="23"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B155" s="32"/>
+      <c r="A155" s="31"/>
+      <c r="B155" s="23"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B156" s="22"/>
+      <c r="A156" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="18"/>
+      <c r="I156" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="J156" s="16"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="22"/>
+      <c r="A157" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="23"/>
+      <c r="I157" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B158" s="22"/>
+      <c r="A158" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158" s="32"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="19"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="32"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B160" s="18"/>
-      <c r="I160" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J160" s="16"/>
+      <c r="A160" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="23"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B161" s="22"/>
-      <c r="I161" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="A161" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" s="23"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B162" s="22"/>
+      <c r="A162" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" s="23"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B163" s="22"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="23"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B164" s="22"/>
+      <c r="A164" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="18"/>
+      <c r="I164" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="22"/>
+        <v>142</v>
+      </c>
+      <c r="B165" s="23"/>
+      <c r="I165" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B166" s="22"/>
+      <c r="A166" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B166" s="23"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B167" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="B167" s="23"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="42"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B168" s="23"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B169" s="18"/>
-      <c r="I169" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="J169" s="16"/>
+      <c r="A169" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="23"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B170" s="32"/>
-      <c r="I170" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="A170" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="23"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B171" s="32"/>
+      <c r="A171" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="23"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B172" s="33"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="23"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B173" s="32"/>
+      <c r="A173" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="I173" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J173" s="16"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B174" s="32"/>
+      <c r="I174" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="36" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B175" s="32"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B176" s="32"/>
+      <c r="A176" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" s="33"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="37" t="s">
-        <v>147</v>
+      <c r="A177" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="B177" s="32"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="37" t="s">
-        <v>148</v>
+      <c r="A178" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="B178" s="32"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B179" s="33"/>
+      <c r="A179" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="32"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B180" s="32"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="37" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B181" s="32"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="37" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B182" s="32"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B183" s="32"/>
+        <v>159</v>
+      </c>
+      <c r="B183" s="33"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="13"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" s="32"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B185" s="18"/>
-      <c r="I185" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="J185" s="16"/>
+      <c r="A185" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B185" s="32"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="21" t="s">
-        <v>155</v>
+      <c r="A186" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="B186" s="32"/>
-      <c r="I186" s="19" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="21" t="s">
-        <v>156</v>
+      <c r="A187" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="B187" s="32"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B188" s="33"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="23"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B189" s="32"/>
+      <c r="A189" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="18"/>
+      <c r="I189" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J189" s="16"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="21" t="s">
-        <v>159</v>
+      <c r="A190" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="B190" s="32"/>
+      <c r="I190" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="21" t="s">
-        <v>160</v>
+      <c r="A191" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="B191" s="32"/>
     </row>
-    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B192" s="32"/>
-    </row>
-    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B193" s="22"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192" s="33"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="32"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="J194" s="10"/>
+      <c r="A194" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="32"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="37"/>
-      <c r="B195" s="22"/>
-      <c r="I195" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="36"/>
+      <c r="A195" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B195" s="32"/>
+    </row>
+    <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="25" t="s">
+        <v>171</v>
+      </c>
       <c r="B196" s="32"/>
-      <c r="I196" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="43"/>
-      <c r="B197" s="32"/>
-      <c r="I197" s="31" t="s">
-        <v>166</v>
+    </row>
+    <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B197" s="23"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I198" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="37"/>
+      <c r="B199" s="23"/>
+      <c r="I199" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="36"/>
+      <c r="B200" s="32"/>
+      <c r="I200" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="43"/>
+      <c r="B201" s="32"/>
+      <c r="I201" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -599,10 +599,10 @@
     <t xml:space="preserve">Transaction level: Aid type included in which transaction types?</t>
   </si>
   <si>
-    <t xml:space="preserve">Which default aid type vocabularies are being used?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which aid type vocabularies are being used?</t>
+    <t xml:space="preserve">Which default aid type codes are being used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which aid type codes are being used?</t>
   </si>
   <si>
     <t xml:space="preserve">Organization File (manual)</t>
@@ -1090,10 +1090,10 @@
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
+      <selection pane="topLeft" activeCell="A198" activeCellId="0" sqref="A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.13"/>
